--- a/data-raw/NT/Revenue.xlsx
+++ b/data-raw/NT/Revenue.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
   <si>
     <t>April_2006</t>
   </si>
@@ -1258,6 +1258,12 @@
   <si>
     <t xml:space="preserve">December_2023</t>
   </si>
+  <si>
+    <t xml:space="preserve">January_2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February_2024</t>
+  </si>
 </sst>
 </file>
 
@@ -9245,6 +9251,12 @@
       <c r="JD1" t="s">
         <v>409</v>
       </c>
+      <c r="JE1" t="s">
+        <v>410</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -10039,6 +10051,12 @@
       <c r="JD2" t="n">
         <v>142270606.62626</v>
       </c>
+      <c r="JE2" t="n">
+        <v>61926787.19065</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>124465730.9939</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -10833,6 +10851,12 @@
       <c r="JD3" t="n">
         <v>56318599.03469</v>
       </c>
+      <c r="JE3" t="n">
+        <v>56810948.72141</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>74564762.61466</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -11087,6 +11111,12 @@
       <c r="JD4" t="n">
         <v>1124094.90328</v>
       </c>
+      <c r="JE4" t="n">
+        <v>2060080.2751</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>25433841.56019</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -11341,6 +11371,12 @@
       <c r="JD5" t="n">
         <v>56953100.11963</v>
       </c>
+      <c r="JE5" t="n">
+        <v>56937071.24468</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>51239315.778</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -11595,6 +11631,12 @@
       <c r="JD6" t="n">
         <v>-352923.04042</v>
       </c>
+      <c r="JE6" t="n">
+        <v>-289051.90809</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>-316491.46128</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -11849,6 +11891,12 @@
       <c r="JD7" t="n">
         <v>-43903.9890600001</v>
       </c>
+      <c r="JE7" t="n">
+        <v>-27439.54986</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>-55056.1566099999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -12103,6 +12151,12 @@
       <c r="JD8" t="n">
         <v>-1361768.95874</v>
       </c>
+      <c r="JE8" t="n">
+        <v>-1869711.34042</v>
+      </c>
+      <c r="JF8" t="n">
+        <v>-1736847.10564</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -12945,6 +12999,12 @@
       <c r="JD9" t="n">
         <v>85356489.50502</v>
       </c>
+      <c r="JE9" t="n">
+        <v>4462716.58824</v>
+      </c>
+      <c r="JF9" t="n">
+        <v>49551953.15747</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -13739,6 +13799,12 @@
       <c r="JD10" t="n">
         <v>83513233.06455</v>
       </c>
+      <c r="JE10" t="n">
+        <v>1955041.45025</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>46799190.93124</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -14533,6 +14599,12 @@
       <c r="JD11" t="n">
         <v>578.58077</v>
       </c>
+      <c r="JE11" t="n">
+        <v>218.15006</v>
+      </c>
+      <c r="JF11" t="n">
+        <v>579.47515</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -14967,6 +15039,12 @@
       <c r="JD12" t="n">
         <v>1773709.82557</v>
       </c>
+      <c r="JE12" t="n">
+        <v>2320185.84654</v>
+      </c>
+      <c r="JF12" t="n">
+        <v>2675374.29233</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -15293,6 +15371,12 @@
       <c r="JD13" t="n">
         <v>68968.03413</v>
       </c>
+      <c r="JE13" t="n">
+        <v>187271.14139</v>
+      </c>
+      <c r="JF13" t="n">
+        <v>76808.45875</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -15740,6 +15824,8 @@
       <c r="JB14"/>
       <c r="JC14"/>
       <c r="JD14"/>
+      <c r="JE14"/>
+      <c r="JF14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -16318,6 +16404,12 @@
       <c r="JD15" t="n">
         <v>924471.44087</v>
       </c>
+      <c r="JE15" t="n">
+        <v>778761.57811</v>
+      </c>
+      <c r="JF15" t="n">
+        <v>747250.39479</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -16896,6 +16988,12 @@
       <c r="JD16" t="n">
         <v>595518.08655</v>
       </c>
+      <c r="JE16" t="n">
+        <v>653121.881</v>
+      </c>
+      <c r="JF16" t="n">
+        <v>349015.22177</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -17546,6 +17644,12 @@
       <c r="JD17" t="n">
         <v>0</v>
       </c>
+      <c r="JE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -18340,6 +18444,12 @@
       <c r="JD18" t="n">
         <v>2054351.77277</v>
       </c>
+      <c r="JE18" t="n">
+        <v>1997304.97726</v>
+      </c>
+      <c r="JF18" t="n">
+        <v>1833769.88862</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -19134,6 +19244,12 @@
       <c r="JD19" t="n">
         <v>2054351.77277</v>
       </c>
+      <c r="JE19" t="n">
+        <v>1997304.97726</v>
+      </c>
+      <c r="JF19" t="n">
+        <v>1833769.88862</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -19928,6 +20044,12 @@
       <c r="JD20" t="n">
         <v>1198667.14957</v>
       </c>
+      <c r="JE20" t="n">
+        <v>1335251.99433</v>
+      </c>
+      <c r="JF20" t="n">
+        <v>1660712.49012</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -20626,6 +20748,12 @@
       <c r="JD21" t="n">
         <v>361176.10762</v>
       </c>
+      <c r="JE21" t="n">
+        <v>236320.9072</v>
+      </c>
+      <c r="JF21" t="n">
+        <v>386913.1936</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -21420,6 +21548,12 @@
       <c r="JD22" t="n">
         <v>28712.18051</v>
       </c>
+      <c r="JE22" t="n">
+        <v>80843.20772</v>
+      </c>
+      <c r="JF22" t="n">
+        <v>60141.59398</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -22214,6 +22348,12 @@
       <c r="JD23" t="n">
         <v>332463.92711</v>
       </c>
+      <c r="JE23" t="n">
+        <v>155477.69948</v>
+      </c>
+      <c r="JF23" t="n">
+        <v>326771.59962</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -22912,6 +23052,12 @@
       <c r="JD24" t="n">
         <v>837491.04195</v>
       </c>
+      <c r="JE24" t="n">
+        <v>1098931.08713</v>
+      </c>
+      <c r="JF24" t="n">
+        <v>1273799.29652</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -23706,6 +23852,12 @@
       <c r="JD25" t="n">
         <v>424627.7564</v>
       </c>
+      <c r="JE25" t="n">
+        <v>354909.14057</v>
+      </c>
+      <c r="JF25" t="n">
+        <v>371096.64078</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -24500,6 +24652,12 @@
       <c r="JD26" t="n">
         <v>412863.28555</v>
       </c>
+      <c r="JE26" t="n">
+        <v>744021.94656</v>
+      </c>
+      <c r="JF26" t="n">
+        <v>902702.65574</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -25294,6 +25452,12 @@
       <c r="JD27" t="n">
         <v>51725434.82566</v>
       </c>
+      <c r="JE27" t="n">
+        <v>57507421.73744</v>
+      </c>
+      <c r="JF27" t="n">
+        <v>49810704.43334</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -26088,6 +26252,12 @@
       <c r="JD28" t="n">
         <v>37952753.81765</v>
       </c>
+      <c r="JE28" t="n">
+        <v>40241697.06058</v>
+      </c>
+      <c r="JF28" t="n">
+        <v>36291782.22164</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -26558,6 +26728,12 @@
       <c r="JD29" t="n">
         <v>46111895.37498</v>
       </c>
+      <c r="JE29" t="n">
+        <v>50250661.59274</v>
+      </c>
+      <c r="JF29" t="n">
+        <v>41992279.50453</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -27028,6 +27204,12 @@
       <c r="JD30" t="n">
         <v>21088839.15317</v>
       </c>
+      <c r="JE30" t="n">
+        <v>19430114.7585</v>
+      </c>
+      <c r="JF30" t="n">
+        <v>21399619.36065</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -27498,6 +27680,12 @@
       <c r="JD31" t="n">
         <v>-29247980.7105</v>
       </c>
+      <c r="JE31" t="n">
+        <v>-29439079.29066</v>
+      </c>
+      <c r="JF31" t="n">
+        <v>-27100116.64354</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -28040,6 +28228,12 @@
       <c r="JD32" t="n">
         <v>23.9967</v>
       </c>
+      <c r="JE32" t="n">
+        <v>306.54462</v>
+      </c>
+      <c r="JF32" t="n">
+        <v>4713.43824</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -28834,6 +29028,12 @@
       <c r="JD33" t="n">
         <v>4905417.43294</v>
       </c>
+      <c r="JE33" t="n">
+        <v>6508369.73644</v>
+      </c>
+      <c r="JF33" t="n">
+        <v>5337881.16573</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -29628,6 +29828,12 @@
       <c r="JD34" t="n">
         <v>1922472.77238</v>
       </c>
+      <c r="JE34" t="n">
+        <v>2030024.55245</v>
+      </c>
+      <c r="JF34" t="n">
+        <v>2027161.35192</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -30422,6 +30628,12 @@
       <c r="JD35" t="n">
         <v>697.75756</v>
       </c>
+      <c r="JE35" t="n">
+        <v>475.7318</v>
+      </c>
+      <c r="JF35" t="n">
+        <v>350.62095</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -31216,6 +31428,12 @@
       <c r="JD36" t="n">
         <v>619440.2707</v>
       </c>
+      <c r="JE36" t="n">
+        <v>820517.79951</v>
+      </c>
+      <c r="JF36" t="n">
+        <v>1231056.62553</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -31303,6 +31521,8 @@
       <c r="JB37"/>
       <c r="JC37"/>
       <c r="JD37"/>
+      <c r="JE37"/>
+      <c r="JF37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -32097,6 +32317,12 @@
       <c r="JD38" t="n">
         <v>1236780.90862</v>
       </c>
+      <c r="JE38" t="n">
+        <v>1267049.71729</v>
+      </c>
+      <c r="JF38" t="n">
+        <v>1308726.84603</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -32891,6 +33117,12 @@
       <c r="JD39" t="n">
         <v>746331.60383</v>
       </c>
+      <c r="JE39" t="n">
+        <v>2083618.78934</v>
+      </c>
+      <c r="JF39" t="n">
+        <v>673971.4196</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -33685,6 +33917,12 @@
       <c r="JD40" t="n">
         <v>39504.80611</v>
       </c>
+      <c r="JE40" t="n">
+        <v>37973.28832</v>
+      </c>
+      <c r="JF40" t="n">
+        <v>33591.35345</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -34479,6 +34717,12 @@
       <c r="JD41" t="n">
         <v>53216.66836</v>
       </c>
+      <c r="JE41" t="n">
+        <v>66363.09174</v>
+      </c>
+      <c r="JF41" t="n">
+        <v>62780.39225</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -35174,6 +35418,12 @@
       <c r="JD42" t="n">
         <v>286907.10538</v>
       </c>
+      <c r="JE42" t="n">
+        <v>202323.85599</v>
+      </c>
+      <c r="JF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -35968,6 +36218,12 @@
       <c r="JD43" t="n">
         <v>-13780.18037</v>
       </c>
+      <c r="JE43" t="n">
+        <v>1628193.42224</v>
+      </c>
+      <c r="JF43" t="n">
+        <v>654.54622</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -36186,6 +36442,12 @@
       <c r="JD44" t="n">
         <v>203251.86464</v>
       </c>
+      <c r="JE44" t="n">
+        <v>220330.77645</v>
+      </c>
+      <c r="JF44" t="n">
+        <v>176129.45251</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -36980,6 +37242,12 @@
       <c r="JD45" t="n">
         <v>7595714.89044</v>
       </c>
+      <c r="JE45" t="n">
+        <v>7892932.33245</v>
+      </c>
+      <c r="JF45" t="n">
+        <v>7131946.25874</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -37162,6 +37430,12 @@
       <c r="JD46" t="n">
         <v>219058.99801</v>
       </c>
+      <c r="JE46" t="n">
+        <v>220962.4732</v>
+      </c>
+      <c r="JF46" t="n">
+        <v>199475.85801</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -37344,6 +37618,12 @@
       <c r="JD47" t="n">
         <v>154692.4912</v>
       </c>
+      <c r="JE47" t="n">
+        <v>168848.70148</v>
+      </c>
+      <c r="JF47" t="n">
+        <v>155947.82748</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -37526,6 +37806,12 @@
       <c r="JD48" t="n">
         <v>64366.50681</v>
       </c>
+      <c r="JE48" t="n">
+        <v>52113.77172</v>
+      </c>
+      <c r="JF48" t="n">
+        <v>43528.03053</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -37565,6 +37851,8 @@
       <c r="JB49"/>
       <c r="JC49"/>
       <c r="JD49"/>
+      <c r="JE49"/>
+      <c r="JF49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -38188,6 +38476,12 @@
       <c r="JD50" t="n">
         <v>1081727.68768</v>
       </c>
+      <c r="JE50" t="n">
+        <v>1011838.9357</v>
+      </c>
+      <c r="JF50" t="n">
+        <v>867109.87045</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -38982,6 +39276,12 @@
       <c r="JD51" t="n">
         <v>77537.1285</v>
       </c>
+      <c r="JE51" t="n">
+        <v>92056.75</v>
+      </c>
+      <c r="JF51" t="n">
+        <v>93345.27513</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -39695,6 +39995,12 @@
       <c r="JD52" t="n">
         <v>193364.69559</v>
       </c>
+      <c r="JE52" t="n">
+        <v>1277.43494</v>
+      </c>
+      <c r="JF52" t="n">
+        <v>1158.84245</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -40237,6 +40543,12 @@
       <c r="JD53" t="n">
         <v>587152.46925</v>
       </c>
+      <c r="JE53" t="n">
+        <v>572403.81089</v>
+      </c>
+      <c r="JF53" t="n">
+        <v>563551.92182</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -40779,6 +41091,12 @@
       <c r="JD54" t="n">
         <v>2471.19245</v>
       </c>
+      <c r="JE54" t="n">
+        <v>616.08</v>
+      </c>
+      <c r="JF54" t="n">
+        <v>1251.26039</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -41285,6 +41603,12 @@
       <c r="JD55" t="n">
         <v>161401.36227</v>
       </c>
+      <c r="JE55" t="n">
+        <v>255874.60712</v>
+      </c>
+      <c r="JF55" t="n">
+        <v>155722.75636</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -41575,6 +41899,12 @@
       <c r="JD56" t="n">
         <v>46116.39771</v>
       </c>
+      <c r="JE56" t="n">
+        <v>86627.72486</v>
+      </c>
+      <c r="JF56" t="n">
+        <v>50391.96425</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -41865,6 +42195,12 @@
       <c r="JD57" t="n">
         <v>0</v>
       </c>
+      <c r="JE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -42011,6 +42347,12 @@
       <c r="JD58" t="n">
         <v>13684.44191</v>
       </c>
+      <c r="JE58" t="n">
+        <v>2982.52789</v>
+      </c>
+      <c r="JF58" t="n">
+        <v>1687.85005</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -42029,6 +42371,8 @@
       <c r="JB59"/>
       <c r="JC59"/>
       <c r="JD59"/>
+      <c r="JE59"/>
+      <c r="JF59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -42077,6 +42421,8 @@
       <c r="JB60"/>
       <c r="JC60"/>
       <c r="JD60"/>
+      <c r="JE60"/>
+      <c r="JF60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -42727,6 +43073,12 @@
       <c r="JD61" t="n">
         <v>924471.44087</v>
       </c>
+      <c r="JE61" t="n">
+        <v>778761.57811</v>
+      </c>
+      <c r="JF61" t="n">
+        <v>747250.39479</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -43383,6 +43735,12 @@
       <c r="JD62" t="n">
         <v>325.31598</v>
       </c>
+      <c r="JE62" t="n">
+        <v>3752.92896</v>
+      </c>
+      <c r="JF62" t="n">
+        <v>487.47981</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -44177,6 +44535,12 @@
       <c r="JD63" t="n">
         <v>6273499.79295</v>
       </c>
+      <c r="JE63" t="n">
+        <v>5463306.78387</v>
+      </c>
+      <c r="JF63" t="n">
+        <v>6074902.59432</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -44827,6 +45191,12 @@
       <c r="JD64" t="n">
         <v>5934778.31017</v>
       </c>
+      <c r="JE64" t="n">
+        <v>5334340.08788</v>
+      </c>
+      <c r="JF64" t="n">
+        <v>5668816.24067</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -45621,6 +45991,12 @@
       <c r="JD65" t="n">
         <v>5004619.78498</v>
       </c>
+      <c r="JE65" t="n">
+        <v>4718961.45129</v>
+      </c>
+      <c r="JF65" t="n">
+        <v>4841407.56506</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -45672,6 +46048,8 @@
       <c r="JB66"/>
       <c r="JC66"/>
       <c r="JD66"/>
+      <c r="JE66"/>
+      <c r="JF66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -45711,6 +46089,8 @@
       <c r="JB67"/>
       <c r="JC67"/>
       <c r="JD67"/>
+      <c r="JE67"/>
+      <c r="JF67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -46145,6 +46525,12 @@
       <c r="JD68" t="n">
         <v>930158.52519</v>
       </c>
+      <c r="JE68" t="n">
+        <v>615378.63659</v>
+      </c>
+      <c r="JF68" t="n">
+        <v>827408.67561</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -46363,6 +46749,12 @@
       <c r="JD69" t="n">
         <v>10093.44444</v>
       </c>
+      <c r="JE69" t="n">
+        <v>7079.92784</v>
+      </c>
+      <c r="JF69" t="n">
+        <v>8338.66044</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -47013,6 +47405,12 @@
       <c r="JD70" t="n">
         <v>924471.44087</v>
       </c>
+      <c r="JE70" t="n">
+        <v>778761.57811</v>
+      </c>
+      <c r="JF70" t="n">
+        <v>747250.39479</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -47807,6 +48205,12 @@
       <c r="JD71" t="n">
         <v>291890.4672</v>
       </c>
+      <c r="JE71" t="n">
+        <v>105883.51641</v>
+      </c>
+      <c r="JF71" t="n">
+        <v>336266.56151</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -48472,6 +48876,12 @@
       <c r="JD72" t="n">
         <v>0</v>
       </c>
+      <c r="JE72" t="n">
+        <v>5752.62751</v>
+      </c>
+      <c r="JF72" t="n">
+        <v>11015.58393</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -48582,6 +48992,12 @@
       <c r="JD73" t="n">
         <v>36737.57114</v>
       </c>
+      <c r="JE73" t="n">
+        <v>10250.62423</v>
+      </c>
+      <c r="JF73" t="n">
+        <v>50465.54777</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -49376,6 +49792,12 @@
       <c r="JD74" t="n">
         <v>0</v>
       </c>
+      <c r="JE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -50170,6 +50592,12 @@
       <c r="JD75" t="n">
         <v>0</v>
       </c>
+      <c r="JE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -50928,6 +51356,12 @@
       <c r="JD76" t="n">
         <v>748.27245</v>
       </c>
+      <c r="JE76" t="n">
+        <v>41.1248800000001</v>
+      </c>
+      <c r="JF76" t="n">
+        <v>67.3823199999999</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -51722,6 +52156,12 @@
       <c r="JD77" t="n">
         <v>203523308.43966</v>
       </c>
+      <c r="JE77" t="n">
+        <v>128230113.80843</v>
+      </c>
+      <c r="JF77" t="n">
+        <v>183845887.78262</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -52423,6 +52863,12 @@
       <c r="JD78" t="n">
         <v>0</v>
       </c>
+      <c r="JE78" t="n">
+        <v>-19952745</v>
+      </c>
+      <c r="JF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -53216,6 +53662,12 @@
       </c>
       <c r="JD79" t="n">
         <v>203523308.43966</v>
+      </c>
+      <c r="JE79" t="n">
+        <v>108277368.80843</v>
+      </c>
+      <c r="JF79" t="n">
+        <v>183845887.78262</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/NT/Revenue.xlsx
+++ b/data-raw/NT/Revenue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4983\Documents\tax4sa\data-raw\NT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423CCF1-8D15-4FBB-A155-FA08271E26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F41ED33-A1A3-438A-8879-3AB94A7E1532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="430">
   <si>
     <t>April_2006</t>
   </si>
@@ -1310,6 +1310,21 @@
   <si>
     <t>2023/24</t>
   </si>
+  <si>
+    <t>January_2025</t>
+  </si>
+  <si>
+    <t>February_2025</t>
+  </si>
+  <si>
+    <t>March_2025</t>
+  </si>
+  <si>
+    <t>April_2025</t>
+  </si>
+  <si>
+    <t>2024/25</t>
+  </si>
 </sst>
 </file>
 
@@ -1626,13 +1641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR82"/>
+  <dimension ref="A1:AS76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AQ44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR3" sqref="AR3"/>
+      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1652,7 +1667,7 @@
     <col min="45" max="45" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>242</v>
       </c>
@@ -1785,8 +1800,11 @@
       <c r="AR1" t="s">
         <v>424</v>
       </c>
+      <c r="AS1" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -1797,39 +1815,39 @@
         <v>247</v>
       </c>
       <c r="D2">
-        <f>D3+SUM(D5:D18)</f>
+        <f t="shared" ref="D2:L2" si="0">D3+SUM(D5:D18)</f>
         <v>11248549</v>
       </c>
       <c r="E2">
-        <f>E3+SUM(E5:E18)</f>
+        <f t="shared" si="0"/>
         <v>13916172</v>
       </c>
       <c r="F2">
-        <f>F3+SUM(F5:F18)</f>
+        <f t="shared" si="0"/>
         <v>17417635</v>
       </c>
       <c r="G2">
-        <f>G3+SUM(G5:G18)</f>
+        <f t="shared" si="0"/>
         <v>19663867</v>
       </c>
       <c r="H2">
-        <f>H3+SUM(H5:H18)</f>
+        <f t="shared" si="0"/>
         <v>22109211</v>
       </c>
       <c r="I2">
-        <f>I3+SUM(I5:I18)</f>
+        <f t="shared" si="0"/>
         <v>26671088</v>
       </c>
       <c r="J2">
-        <f>J3+SUM(J5:J18)</f>
+        <f t="shared" si="0"/>
         <v>34430749</v>
       </c>
       <c r="K2">
-        <f>K3+SUM(K5:K18)</f>
+        <f t="shared" si="0"/>
         <v>39580892</v>
       </c>
       <c r="L2">
-        <f>L3+SUM(L5:L18)</f>
+        <f t="shared" si="0"/>
         <v>44661635</v>
       </c>
       <c r="M2">
@@ -1929,8 +1947,12 @@
         <f>SUM(Monthly!IV2:JG2)</f>
         <v>1008555802.7005699</v>
       </c>
+      <c r="AS2">
+        <f>SUM(Monthly!JH2:JS2)</f>
+        <v>1100529906.5327702</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>247</v>
       </c>
@@ -2064,8 +2086,12 @@
         <f>SUM(Monthly!IV3:JG3)</f>
         <v>648911080.71894002</v>
       </c>
+      <c r="AS3">
+        <f>SUM(Monthly!JH3:JS3)</f>
+        <v>729910987.28751004</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -2076,135 +2102,139 @@
         <v>185</v>
       </c>
       <c r="M4">
-        <f>SUM(M5:M13)</f>
+        <f t="shared" ref="M4:AQ4" si="1">SUM(M5:M13)</f>
         <v>13123316</v>
       </c>
       <c r="N4">
-        <f>SUM(N5:N13)</f>
+        <f t="shared" si="1"/>
         <v>12367545</v>
       </c>
       <c r="O4">
-        <f>SUM(O5:O13)</f>
+        <f t="shared" si="1"/>
         <v>14895074</v>
       </c>
       <c r="P4">
-        <f>SUM(P5:P13)</f>
+        <f t="shared" si="1"/>
         <v>16929703</v>
       </c>
       <c r="Q4">
-        <f>SUM(Q5:Q13)</f>
+        <f t="shared" si="1"/>
         <v>22737644</v>
       </c>
       <c r="R4">
-        <f>SUM(R5:R13)</f>
+        <f t="shared" si="1"/>
         <v>26054303</v>
       </c>
       <c r="S4">
-        <f>SUM(S5:S13)</f>
+        <f t="shared" si="1"/>
         <v>29644876</v>
       </c>
       <c r="T4">
-        <f>SUM(T5:T13)</f>
+        <f t="shared" si="1"/>
         <v>29451968</v>
       </c>
       <c r="U4">
-        <f>SUM(U5:U13)</f>
+        <f t="shared" si="1"/>
         <v>38742930</v>
       </c>
       <c r="V4">
-        <f>SUM(V5:V13)</f>
+        <f t="shared" si="1"/>
         <v>55707799</v>
       </c>
       <c r="W4">
-        <f>SUM(W5:W13)</f>
+        <f t="shared" si="1"/>
         <v>69060285</v>
       </c>
       <c r="X4">
-        <f>SUM(X5:X13)</f>
+        <f t="shared" si="1"/>
         <v>71911383</v>
       </c>
       <c r="Y4">
-        <f>SUM(Y5:Y13)</f>
+        <f t="shared" si="1"/>
         <v>82675065</v>
       </c>
       <c r="Z4">
-        <f>SUM(Z5:Z13)</f>
+        <f t="shared" si="1"/>
         <v>103221508</v>
       </c>
       <c r="AA4">
-        <f>SUM(AA5:AA13)</f>
+        <f t="shared" si="1"/>
         <v>137480462</v>
       </c>
       <c r="AB4">
-        <f>SUM(AB5:AB13)</f>
+        <f t="shared" si="1"/>
         <v>160990609</v>
       </c>
       <c r="AC4">
-        <f>SUM(AC5:AC13)</f>
+        <f t="shared" si="1"/>
         <v>185539109</v>
       </c>
       <c r="AD4">
-        <f>SUM(AD5:AD13)</f>
+        <f t="shared" si="1"/>
         <v>150393914.03</v>
       </c>
       <c r="AE4">
-        <f>SUM(AE5:AE13)</f>
+        <f t="shared" si="1"/>
         <v>150082641.17999998</v>
       </c>
       <c r="AF4">
-        <f>SUM(AF5:AF13)</f>
+        <f t="shared" si="1"/>
         <v>173598749.692</v>
       </c>
       <c r="AG4">
-        <f>SUM(AG5:AG13)</f>
+        <f t="shared" si="1"/>
         <v>178998096.197</v>
       </c>
       <c r="AH4">
-        <f>SUM(AH5:AH13)</f>
+        <f t="shared" si="1"/>
         <v>194633062.88799998</v>
       </c>
       <c r="AI4">
-        <f>SUM(AI5:AI13)</f>
+        <f t="shared" si="1"/>
         <v>206172681.24000001</v>
       </c>
       <c r="AJ4">
-        <f>SUM(AJ5:AJ13)</f>
+        <f t="shared" si="1"/>
         <v>215304416.75999999</v>
       </c>
       <c r="AK4">
-        <f>SUM(AK5:AK13)</f>
+        <f t="shared" si="1"/>
         <v>236007424.00000003</v>
       </c>
       <c r="AL4">
-        <f>SUM(AL5:AL13)</f>
+        <f t="shared" si="1"/>
         <v>245971610.53953999</v>
       </c>
       <c r="AM4">
-        <f>SUM(AM5:AM13)</f>
+        <f t="shared" si="1"/>
         <v>242569142.13381001</v>
       </c>
       <c r="AN4">
-        <f>SUM(AN5:AN13)</f>
+        <f t="shared" si="1"/>
         <v>240046915.40483993</v>
       </c>
       <c r="AO4">
-        <f>SUM(AO5:AO13)</f>
+        <f t="shared" si="1"/>
         <v>227434992.50809002</v>
       </c>
       <c r="AP4">
-        <f>SUM(AP5:AP13)</f>
+        <f t="shared" si="1"/>
         <v>354345095</v>
       </c>
       <c r="AQ4">
-        <f>SUM(AQ5:AQ13)</f>
+        <f t="shared" si="1"/>
         <v>383504546</v>
       </c>
       <c r="AR4">
         <f>SUM(Monthly!IV9:JG9)</f>
         <v>353406478.11732996</v>
       </c>
+      <c r="AS4">
+        <f>SUM(Monthly!JH9:JS9)</f>
+        <v>362871331.8867799</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>247</v>
       </c>
@@ -2338,8 +2368,12 @@
         <f>SUM(Monthly!IV10:JG10)</f>
         <v>313097151.32366997</v>
       </c>
+      <c r="AS5">
+        <f>SUM(Monthly!JH10:JS10)</f>
+        <v>318739343.86049002</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>247</v>
       </c>
@@ -2443,8 +2477,12 @@
         <f>SUM(Monthly!IV11:JG11)</f>
         <v>70596.865239999999</v>
       </c>
+      <c r="AS6">
+        <f>SUM(Monthly!JH11:JS11)</f>
+        <v>14841.0653</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -2458,8 +2496,12 @@
         <f>SUM(Monthly!IV12:JG12)</f>
         <v>39102229.594920002</v>
       </c>
+      <c r="AS7">
+        <f>SUM(Monthly!JH12:JS12)</f>
+        <v>42973231.255430005</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>247</v>
       </c>
@@ -2506,8 +2548,12 @@
         <f>SUM(Monthly!IV13:JG13)</f>
         <v>1136500.3335000002</v>
       </c>
+      <c r="AS8">
+        <f>SUM(Monthly!JH13:JS13)</f>
+        <v>1143915.7055600001</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>247</v>
       </c>
@@ -2566,7 +2612,7 @@
         <v>188647</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -2625,7 +2671,7 @@
         <v>320437</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -2684,7 +2730,7 @@
         <v>1677585</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -2746,7 +2792,7 @@
         <v>159.43700000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>247</v>
       </c>
@@ -2802,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>247</v>
       </c>
@@ -2819,8 +2865,12 @@
         <f>SUM(Monthly!IV15:JG15)</f>
         <v>9517180.8836200014</v>
       </c>
+      <c r="AS14">
+        <f>SUM(Monthly!JH15:JS15)</f>
+        <v>10976598.82299</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -2885,7 +2935,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -2944,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>247</v>
       </c>
@@ -3078,8 +3128,12 @@
         <f>SUM(Monthly!IV16:JG16)</f>
         <v>6238243.8643000005</v>
       </c>
+      <c r="AS17">
+        <f>SUM(Monthly!JH16:JS16)</f>
+        <v>7747587.3584799999</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>247</v>
       </c>
@@ -3147,8 +3201,12 @@
         <f>SUM(Monthly!IV17:JG17)</f>
         <v>0</v>
       </c>
+      <c r="AS18">
+        <f>SUM(Monthly!JH17:JS17)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -3234,8 +3292,12 @@
         <f>SUM(Monthly!IV18:JG18)</f>
         <v>22604347.389530003</v>
       </c>
+      <c r="AS19">
+        <f>SUM(Monthly!JH18:JS18)</f>
+        <v>24447989.139509998</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -3321,8 +3383,12 @@
         <f>SUM(Monthly!IV19:JG19)</f>
         <v>22604347.389530003</v>
       </c>
+      <c r="AS20">
+        <f>SUM(Monthly!JH19:JS19)</f>
+        <v>24447989.139509998</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -3333,35 +3399,35 @@
         <v>194</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:I21" si="0">SUM(D22:D26)</f>
+        <f t="shared" ref="D21:I21" si="2">SUM(D22:D26)</f>
         <v>447923</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>421309</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>467249</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>580817</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>824315</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>822991</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:K21" si="1">SUM(J22:J26)</f>
+        <f t="shared" ref="J21:K21" si="3">SUM(J22:J26)</f>
         <v>1033643</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1098198</v>
       </c>
       <c r="L21">
@@ -3465,8 +3531,12 @@
         <f>SUM(Monthly!IV20:JG20)</f>
         <v>19399917.61851</v>
       </c>
+      <c r="AS21">
+        <f>SUM(Monthly!JH20:JS20)</f>
+        <v>22505089.280309997</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -3600,8 +3670,12 @@
         <f>SUM(Monthly!IV22:JG22)</f>
         <v>801097.41755000001</v>
       </c>
+      <c r="AS22">
+        <f>SUM(Monthly!JH22:JS22)</f>
+        <v>1144497.6605799999</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -3735,8 +3809,12 @@
         <f>SUM(Monthly!IV23:JG23)</f>
         <v>3532500.0908900001</v>
       </c>
+      <c r="AS23">
+        <f>SUM(Monthly!JH23:JS23)</f>
+        <v>4035860.7750699995</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -3870,8 +3948,12 @@
         <f>SUM(Monthly!IV25:JG25)</f>
         <v>5484987.6118100006</v>
       </c>
+      <c r="AS24">
+        <f>SUM(Monthly!JH25:JS25)</f>
+        <v>5958032.2576599997</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -4005,8 +4087,12 @@
         <f>SUM(Monthly!IV26:JG26)</f>
         <v>9581332.4982600007</v>
       </c>
+      <c r="AS25">
+        <f>SUM(Monthly!JH26:JS26)</f>
+        <v>11366698.587000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>194</v>
       </c>
@@ -4029,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>293</v>
       </c>
@@ -4040,35 +4126,35 @@
         <v>293</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:I27" si="2">SUM(D28:D62)</f>
+        <f t="shared" ref="D27:I27" si="4">SUM(D28:D62)</f>
         <v>5708273</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7913291</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10244922</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10959906</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13197157</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18196002</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27:K27" si="3">SUM(J28:J62)</f>
+        <f t="shared" ref="J27:K27" si="5">SUM(J28:J62)</f>
         <v>23684105</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26097645</v>
       </c>
       <c r="L27">
@@ -4172,8 +4258,12 @@
         <f>SUM(Monthly!IV27:JG27)</f>
         <v>616458865.70154989</v>
       </c>
+      <c r="AS27">
+        <f>SUM(Monthly!JH27:JS27)</f>
+        <v>627973090.92920995</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -4266,47 +4356,47 @@
         <v>147941322</v>
       </c>
       <c r="AE28">
-        <f t="shared" ref="AE28:AO28" si="4">SUM(AE29:AE31)</f>
+        <f t="shared" ref="AE28:AO28" si="6">SUM(AE29:AE31)</f>
         <v>183571439.47000003</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>191020198.53599998</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>215023035.17400002</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>237666578.87200001</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>261294787.94000003</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>281111410.02999997</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>289166722.46000004</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>297997586.56050998</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>324765977.89959002</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>346747694.24808002</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>331183557.92798984</v>
       </c>
       <c r="AP28">
@@ -4319,8 +4409,12 @@
         <f>SUM(Monthly!IV28:JG28)</f>
         <v>447556730.13621998</v>
       </c>
+      <c r="AS28">
+        <f>SUM(Monthly!JH28:JS28)</f>
+        <v>457788790.28143007</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -4376,8 +4470,12 @@
         <f>SUM(Monthly!IV29:JG29)</f>
         <v>525446325.11544007</v>
       </c>
+      <c r="AS29">
+        <f>SUM(Monthly!JH29:JS29)</f>
+        <v>561407293.62182999</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>293</v>
       </c>
@@ -4433,8 +4531,12 @@
         <f>SUM(Monthly!IV30:JG30)</f>
         <v>265043200.66084003</v>
       </c>
+      <c r="AS30">
+        <f>SUM(Monthly!JH30:JS30)</f>
+        <v>261878360.66328996</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>293</v>
       </c>
@@ -4490,8 +4592,12 @@
         <f>SUM(Monthly!IV31:JG31)</f>
         <v>-342932795.64006001</v>
       </c>
+      <c r="AS31">
+        <f>SUM(Monthly!JH31:JS31)</f>
+        <v>-365496864.00369</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -4502,7 +4608,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -4636,8 +4742,12 @@
         <f>SUM(Monthly!IV34:JG34)</f>
         <v>21873494.874230001</v>
       </c>
+      <c r="AS33">
+        <f>SUM(Monthly!JH34:JS34)</f>
+        <v>24950479.342069998</v>
+      </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>293</v>
       </c>
@@ -4747,8 +4857,12 @@
         <f>SUM(Monthly!IV35:JG35)</f>
         <v>6635.3018700000002</v>
       </c>
+      <c r="AS34">
+        <f>SUM(Monthly!JH35:JS35)</f>
+        <v>7744.8674499999997</v>
+      </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>293</v>
       </c>
@@ -4882,8 +4996,12 @@
         <f>SUM(Monthly!IV36:JG36)</f>
         <v>7376605.7034700001</v>
       </c>
+      <c r="AS35">
+        <f>SUM(Monthly!JH36:JS36)</f>
+        <v>7640938.3053799998</v>
+      </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>293</v>
       </c>
@@ -4960,8 +5078,12 @@
         <f>SUM(Monthly!IV37:JG37)</f>
         <v>0</v>
       </c>
+      <c r="AS36">
+        <f>SUM(Monthly!JH37:JS37)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>293</v>
       </c>
@@ -5095,8 +5217,12 @@
         <f>SUM(Monthly!IV38:JG38)</f>
         <v>12448197.953620002</v>
       </c>
+      <c r="AS37">
+        <f>SUM(Monthly!JH38:JS38)</f>
+        <v>14450483.528890001</v>
+      </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -5230,8 +5356,12 @@
         <f>SUM(Monthly!IV39:JG39)</f>
         <v>8279220.6131600002</v>
       </c>
+      <c r="AS38">
+        <f>SUM(Monthly!JH39:JS39)</f>
+        <v>9000465.7547399998</v>
+      </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>293</v>
       </c>
@@ -5365,8 +5495,12 @@
         <f>SUM(Monthly!IV42:JG42)</f>
         <v>382378.78607000003</v>
       </c>
+      <c r="AS39">
+        <f>SUM(Monthly!JH42:JS42)</f>
+        <v>423576.91621000005</v>
+      </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -5500,8 +5634,12 @@
         <f>SUM(Monthly!IV43:JG43)</f>
         <v>1017328.33763</v>
       </c>
+      <c r="AS40">
+        <f>SUM(Monthly!JH43:JS43)</f>
+        <v>679810.86226999981</v>
+      </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -5566,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>293</v>
       </c>
@@ -5607,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>293</v>
       </c>
@@ -5741,8 +5879,12 @@
         <f>SUM(Monthly!IV44:JG44)</f>
         <v>2136978.2807399998</v>
       </c>
+      <c r="AS43">
+        <f>SUM(Monthly!JH44:JS44)</f>
+        <v>2523621.5609599999</v>
+      </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>293</v>
       </c>
@@ -5783,8 +5925,12 @@
         <f>SUM(Monthly!IV46:JG46)</f>
         <v>2244720.70743</v>
       </c>
+      <c r="AS44">
+        <f>SUM(Monthly!JH46:JS46)</f>
+        <v>2282234.2151500001</v>
+      </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>293</v>
       </c>
@@ -5918,8 +6064,12 @@
         <f>SUM(Monthly!IV45:JG45)</f>
         <v>7347555.1246499997</v>
       </c>
+      <c r="AS45">
+        <f>SUM(Monthly!JH45:JS45)</f>
+        <v>6969758.3562799999</v>
+      </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>293</v>
       </c>
@@ -6041,8 +6191,12 @@
         <f>SUM(Monthly!IV47:JG47)</f>
         <v>91508106.461439997</v>
       </c>
+      <c r="AS46">
+        <f>SUM(Monthly!JH47:JS47)</f>
+        <v>85882626.668000013</v>
+      </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>293</v>
       </c>
@@ -6134,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -6220,8 +6374,12 @@
         <f>SUM(Monthly!IV53:JG53)</f>
         <v>945694.39991000004</v>
       </c>
+      <c r="AS48">
+        <f>SUM(Monthly!JH53:JS53)</f>
+        <v>1021318.2980599999</v>
+      </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>293</v>
       </c>
@@ -6286,7 +6444,7 @@
         <v>-4495</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>293</v>
       </c>
@@ -6366,8 +6524,12 @@
         <f>SUM(Monthly!IV54:JG54)</f>
         <v>676281.27874999994</v>
       </c>
+      <c r="AS50">
+        <f>SUM(Monthly!JH54:JS54)</f>
+        <v>698712.48433000012</v>
+      </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>293</v>
       </c>
@@ -6438,8 +6600,12 @@
         <f>SUM(Monthly!IV55:JG55)</f>
         <v>7139414.3853799999</v>
       </c>
+      <c r="AS51">
+        <f>SUM(Monthly!JH55:JS55)</f>
+        <v>7536175.130619999</v>
+      </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>293</v>
       </c>
@@ -6501,8 +6667,12 @@
         <f>SUM(Monthly!IV56:JG56)</f>
         <v>19098.166099999999</v>
       </c>
+      <c r="AS52">
+        <f>SUM(Monthly!JH56:JS56)</f>
+        <v>9834.5069499999991</v>
+      </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>293</v>
       </c>
@@ -6564,8 +6734,12 @@
         <f>SUM(Monthly!IV57:JG57)</f>
         <v>2554284.2661799998</v>
       </c>
+      <c r="AS53">
+        <f>SUM(Monthly!JH57:JS57)</f>
+        <v>3045104.75294</v>
+      </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>293</v>
       </c>
@@ -6609,8 +6783,12 @@
         <f>SUM(Monthly!IV58:JG58)</f>
         <v>763574.86256000004</v>
       </c>
+      <c r="AS54">
+        <f>SUM(Monthly!JH58:JS58)</f>
+        <v>773705.9728600001</v>
+      </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>293</v>
       </c>
@@ -6651,8 +6829,12 @@
         <f>SUM(Monthly!IV59:JG59)</f>
         <v>4920.5249700000004</v>
       </c>
+      <c r="AS55">
+        <f>SUM(Monthly!JH59:JS59)</f>
+        <v>7556.6449099999991</v>
+      </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>293</v>
       </c>
@@ -6714,8 +6896,12 @@
         <f>SUM(Monthly!IV60:JG60)</f>
         <v>2072190.93414</v>
       </c>
+      <c r="AS56">
+        <f>SUM(Monthly!JH60:JS60)</f>
+        <v>2024313.0226299998</v>
+      </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>293</v>
       </c>
@@ -6738,8 +6924,12 @@
         <f>SUM(Monthly!IV32:JG32)</f>
         <v>10822.14143</v>
       </c>
+      <c r="AS57">
+        <f>SUM(Monthly!JH32:JS32)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>293</v>
       </c>
@@ -6762,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>293</v>
       </c>
@@ -6785,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>293</v>
       </c>
@@ -6856,7 +7046,7 @@
         <v>270339</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>293</v>
       </c>
@@ -6873,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>293</v>
       </c>
@@ -6959,8 +7149,12 @@
         <f>SUM(Monthly!IV64:JG64)</f>
         <v>93515.787600000025</v>
       </c>
+      <c r="AS62">
+        <f>SUM(Monthly!JH64:JS64)</f>
+        <v>241868.06606999997</v>
+      </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -6971,35 +7165,35 @@
         <v>229</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:I63" si="5">SUM(D64:D69)</f>
+        <f t="shared" ref="D63:I63" si="7">SUM(D64:D69)</f>
         <v>1347050</v>
       </c>
       <c r="E63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1376552</v>
       </c>
       <c r="F63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1745016</v>
       </c>
       <c r="G63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2275636</v>
       </c>
       <c r="H63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2542107</v>
       </c>
       <c r="I63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4358751</v>
       </c>
       <c r="J63">
-        <f t="shared" ref="J63:K63" si="6">SUM(J64:J69)</f>
+        <f t="shared" ref="J63:K63" si="8">SUM(J64:J69)</f>
         <v>4903708</v>
       </c>
       <c r="K63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4697574</v>
       </c>
       <c r="L63">
@@ -7103,8 +7297,12 @@
         <f>SUM(Monthly!IV65:JG65)</f>
         <v>73848829.854369998</v>
       </c>
+      <c r="AS63">
+        <f>SUM(Monthly!JH65:JS65)</f>
+        <v>79825692.96935001</v>
+      </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>229</v>
       </c>
@@ -7238,8 +7436,12 @@
         <f>SUM(Monthly!IV67:JG67)</f>
         <v>62174524.378979996</v>
       </c>
+      <c r="AS64">
+        <f>SUM(Monthly!JH67:JS67)</f>
+        <v>67338351.456549987</v>
+      </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -7313,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -7354,8 +7556,12 @@
         <f>SUM(Monthly!IV71:JG71)</f>
         <v>114763.66549000001</v>
       </c>
+      <c r="AS66">
+        <f>SUM(Monthly!JH71:JS71)</f>
+        <v>140431.25998</v>
+      </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>229</v>
       </c>
@@ -7408,7 +7614,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -7542,8 +7748,12 @@
         <f>SUM(Monthly!IV73:JG73)</f>
         <v>2637228.1112500001</v>
       </c>
+      <c r="AS68">
+        <f>SUM(Monthly!JH73:JS73)</f>
+        <v>2454588.5237299995</v>
+      </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -7659,8 +7869,12 @@
         <f>SUM(Monthly!IV74:JG74)</f>
         <v>137086.35270000005</v>
       </c>
+      <c r="AS69">
+        <f>SUM(Monthly!JH74:JS74)</f>
+        <v>65312.047450000005</v>
+      </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>229</v>
       </c>
@@ -7680,8 +7894,12 @@
         <f>SUM(Monthly!IV75:JG75)</f>
         <v>411106.76777000003</v>
       </c>
+      <c r="AS70">
+        <f>SUM(Monthly!JH75:JS75)</f>
+        <v>467242.82726000011</v>
+      </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>236</v>
       </c>
@@ -7692,35 +7910,35 @@
         <v>236</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71:I71" si="7">D72</f>
+        <f t="shared" ref="D71:I71" si="9">D72</f>
         <v>213145</v>
       </c>
       <c r="E71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>243793</v>
       </c>
       <c r="F71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>272764</v>
       </c>
       <c r="G71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>321093</v>
       </c>
       <c r="H71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>439010</v>
       </c>
       <c r="I71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>469274</v>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71:K71" si="8">J72</f>
+        <f t="shared" ref="J71:K71" si="10">J72</f>
         <v>685218</v>
       </c>
       <c r="K71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>657267</v>
       </c>
       <c r="L71">
@@ -7824,8 +8042,12 @@
         <f>SUM(Monthly!IV76:JG76)</f>
         <v>0</v>
       </c>
+      <c r="AS71">
+        <f>SUM(Monthly!JH76:JS76)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>236</v>
       </c>
@@ -7959,8 +8181,12 @@
         <f>SUM(Monthly!IV77:JG77)</f>
         <v>0</v>
       </c>
+      <c r="AS72">
+        <f>SUM(Monthly!JH77:JS77)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>238</v>
       </c>
@@ -8052,8 +8278,12 @@
         <f>SUM(Monthly!IV78:JG78)</f>
         <v>2119.0399199999997</v>
       </c>
+      <c r="AS73">
+        <f>SUM(Monthly!JH78:JS78)</f>
+        <v>-11635.93965</v>
+      </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>239</v>
       </c>
@@ -8187,8 +8417,12 @@
         <f>SUM(Monthly!IV79:JG79)</f>
         <v>1740869882.3044498</v>
       </c>
+      <c r="AS74">
+        <f>SUM(Monthly!JH79:JS79)</f>
+        <v>1855270132.9115</v>
+      </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -8322,8 +8556,12 @@
         <f>SUM(Monthly!IV80:JG80)</f>
         <v>-79810980</v>
       </c>
+      <c r="AS75">
+        <f>SUM(Monthly!JH80:JS80)</f>
+        <v>-89874116</v>
+      </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>241</v>
       </c>
@@ -8457,34 +8695,29 @@
         <f>SUM(Monthly!IV81:JG81)</f>
         <v>1661058902.3044498</v>
       </c>
-    </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="AR80">
-        <f>AR3+AR5+AR6+AR8+AR17+AR20+AR22+AR23+AR24+AR25+AR29+AR30+AR31+AR33+AR34+AR35+AR37+AR38+AR39+AR40+AR43+AR44+AR45+AR46+AR48+AR50+AR52+AR53+AR54+AR55+AR56+AR57+AR51+AR62+AR64+AR66+AR68+AR69+AR70+AR73+AR7</f>
-        <v>1732494645.0522699</v>
-      </c>
-    </row>
-    <row r="82" spans="44:44" x14ac:dyDescent="0.35">
-      <c r="AR82">
-        <f>AR80-AR74</f>
-        <v>-8375237.2521798611</v>
+      <c r="AS76">
+        <f>SUM(Monthly!JH81:JS81)</f>
+        <v>1765396016.9115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="AR2:AS76" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:JP81"/>
+  <dimension ref="A1:JT81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="JM2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="JL56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="IZ6" sqref="IZ6"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8704,7 +8937,7 @@
     <col min="260" max="260" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>242</v>
       </c>
@@ -9533,8 +9766,20 @@
       <c r="JP1" t="s">
         <v>423</v>
       </c>
+      <c r="JQ1" t="s">
+        <v>425</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>426</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>427</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="2" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -10363,8 +10608,20 @@
       <c r="JP2">
         <v>144046102.61770001</v>
       </c>
+      <c r="JQ2">
+        <v>69317866.607040003</v>
+      </c>
+      <c r="JR2">
+        <v>136354695.96507999</v>
+      </c>
+      <c r="JS2">
+        <v>109611923.04090001</v>
+      </c>
+      <c r="JT2">
+        <v>72181656.298989996</v>
+      </c>
     </row>
-    <row r="3" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>247</v>
       </c>
@@ -11193,8 +11450,20 @@
       <c r="JP3">
         <v>63476119.343350001</v>
       </c>
+      <c r="JQ3">
+        <v>63551988.106799997</v>
+      </c>
+      <c r="JR3">
+        <v>81937438.691650003</v>
+      </c>
+      <c r="JS3">
+        <v>62728545.386</v>
+      </c>
+      <c r="JT3">
+        <v>67157481.569859996</v>
+      </c>
     </row>
-    <row r="4" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -11483,8 +11752,20 @@
       <c r="JP4">
         <v>2026275.54412</v>
       </c>
+      <c r="JQ4">
+        <v>2493328.60604</v>
+      </c>
+      <c r="JR4">
+        <v>29073501.04871</v>
+      </c>
+      <c r="JS4">
+        <v>2733444.5680399998</v>
+      </c>
+      <c r="JT4">
+        <v>1421444.1790700001</v>
+      </c>
     </row>
-    <row r="5" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>247</v>
       </c>
@@ -11773,8 +12054,20 @@
       <c r="JP5">
         <v>63275631.700850002</v>
       </c>
+      <c r="JQ5">
+        <v>63066576.736000001</v>
+      </c>
+      <c r="JR5">
+        <v>54967094.365259998</v>
+      </c>
+      <c r="JS5">
+        <v>61950781.792719997</v>
+      </c>
+      <c r="JT5">
+        <v>67193803.692139998</v>
+      </c>
     </row>
-    <row r="6" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>247</v>
       </c>
@@ -12063,8 +12356,20 @@
       <c r="JP6">
         <v>-327820.05443000002</v>
       </c>
+      <c r="JQ6">
+        <v>-267679.41639999999</v>
+      </c>
+      <c r="JR6">
+        <v>-338405.66730999999</v>
+      </c>
+      <c r="JS6">
+        <v>-314225.99839999998</v>
+      </c>
+      <c r="JT6">
+        <v>-276639.51257000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -12353,8 +12658,20 @@
       <c r="JP7">
         <v>-44313.800069999998</v>
       </c>
+      <c r="JQ7">
+        <v>-35094.433499999999</v>
+      </c>
+      <c r="JR7">
+        <v>-96155.944090000005</v>
+      </c>
+      <c r="JS7">
+        <v>-21286.669809999999</v>
+      </c>
+      <c r="JT7">
+        <v>-32076.896939999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>247</v>
       </c>
@@ -12643,8 +12960,20 @@
       <c r="JP8">
         <v>-1453654.04712</v>
       </c>
+      <c r="JQ8">
+        <v>-1705143.38534</v>
+      </c>
+      <c r="JR8">
+        <v>-1668595.1109199999</v>
+      </c>
+      <c r="JS8">
+        <v>-1620168.3065500001</v>
+      </c>
+      <c r="JT8">
+        <v>-1149049.8918399999</v>
+      </c>
     </row>
-    <row r="9" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>247</v>
       </c>
@@ -13521,8 +13850,20 @@
       <c r="JP9">
         <v>79945612.510900006</v>
       </c>
+      <c r="JQ9">
+        <v>5197949.1285100104</v>
+      </c>
+      <c r="JR9">
+        <v>53852375.744060002</v>
+      </c>
+      <c r="JS9">
+        <v>45293836.690070003</v>
+      </c>
+      <c r="JT9">
+        <v>4552758.2383599998</v>
+      </c>
     </row>
-    <row r="10" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -14351,8 +14692,20 @@
       <c r="JP10">
         <v>77555474.421849996</v>
       </c>
+      <c r="JQ10">
+        <v>2151526.4998100102</v>
+      </c>
+      <c r="JR10">
+        <v>50746320.373580001</v>
+      </c>
+      <c r="JS10">
+        <v>35487378.129309997</v>
+      </c>
+      <c r="JT10">
+        <v>922841.05269000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -15181,8 +15534,20 @@
       <c r="JP11">
         <v>637.42488000000003</v>
       </c>
+      <c r="JQ11">
+        <v>456.36984000000001</v>
+      </c>
+      <c r="JR11">
+        <v>1210.0420899999999</v>
+      </c>
+      <c r="JS11">
+        <v>651.72787000000005</v>
+      </c>
+      <c r="JT11">
+        <v>346.61988000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -15651,8 +16016,20 @@
       <c r="JP12">
         <v>2334832.4275199999</v>
       </c>
+      <c r="JQ12">
+        <v>2874044.3279400002</v>
+      </c>
+      <c r="JR12">
+        <v>3010038.0395900002</v>
+      </c>
+      <c r="JS12">
+        <v>9736428.2638000008</v>
+      </c>
+      <c r="JT12">
+        <v>3531908.4697599998</v>
+      </c>
     </row>
-    <row r="13" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>247</v>
       </c>
@@ -16013,8 +16390,20 @@
       <c r="JP13">
         <v>54668.236649999999</v>
       </c>
+      <c r="JQ13">
+        <v>171921.93092000001</v>
+      </c>
+      <c r="JR13">
+        <v>94807.288799999995</v>
+      </c>
+      <c r="JS13">
+        <v>69378.569090000005</v>
+      </c>
+      <c r="JT13">
+        <v>97662.096030000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>247</v>
       </c>
@@ -16457,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -17070,8 +17459,20 @@
       <c r="JP15">
         <v>499810.12465000001</v>
       </c>
+      <c r="JQ15">
+        <v>543039.70718000003</v>
+      </c>
+      <c r="JR15">
+        <v>1147694.4482799999</v>
+      </c>
+      <c r="JS15">
+        <v>2148799.4812099999</v>
+      </c>
+      <c r="JT15">
+        <v>847424.21323999995</v>
+      </c>
     </row>
-    <row r="16" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -17684,8 +18085,20 @@
       <c r="JP16">
         <v>624370.76344999997</v>
       </c>
+      <c r="JQ16">
+        <v>567929.37173000001</v>
+      </c>
+      <c r="JR16">
+        <v>564881.52937</v>
+      </c>
+      <c r="JS16">
+        <v>1589540.96483</v>
+      </c>
+      <c r="JT16">
+        <v>471416.49076999997</v>
+      </c>
     </row>
-    <row r="17" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>247</v>
       </c>
@@ -18370,8 +18783,20 @@
       <c r="JP17">
         <v>0</v>
       </c>
+      <c r="JQ17">
+        <v>0</v>
+      </c>
+      <c r="JR17">
+        <v>0</v>
+      </c>
+      <c r="JS17">
+        <v>0</v>
+      </c>
+      <c r="JT17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -19200,8 +19625,20 @@
       <c r="JP18">
         <v>2147361.0937100002</v>
       </c>
+      <c r="JQ18">
+        <v>2239341.4420500002</v>
+      </c>
+      <c r="JR18">
+        <v>1989661.3561</v>
+      </c>
+      <c r="JS18">
+        <v>2142586.90276</v>
+      </c>
+      <c r="JT18">
+        <v>2129295.4993099999</v>
+      </c>
     </row>
-    <row r="19" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -20030,8 +20467,20 @@
       <c r="JP19">
         <v>2147361.0937100002</v>
       </c>
+      <c r="JQ19">
+        <v>2239341.4420500002</v>
+      </c>
+      <c r="JR19">
+        <v>1989661.3561</v>
+      </c>
+      <c r="JS19">
+        <v>2142586.90276</v>
+      </c>
+      <c r="JT19">
+        <v>2129295.4993099999</v>
+      </c>
     </row>
-    <row r="20" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -20860,8 +21309,20 @@
       <c r="JP20">
         <v>1379963.13069</v>
       </c>
+      <c r="JQ20">
+        <v>1685557.9495099999</v>
+      </c>
+      <c r="JR20">
+        <v>2006517.65922</v>
+      </c>
+      <c r="JS20">
+        <v>2625533.83079</v>
+      </c>
+      <c r="JT20">
+        <v>1963094.95169</v>
+      </c>
     </row>
-    <row r="21" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -21594,8 +22055,20 @@
       <c r="JP21">
         <v>373506.53753999999</v>
       </c>
+      <c r="JQ21">
+        <v>317023.82653999998</v>
+      </c>
+      <c r="JR21">
+        <v>525136.85036000004</v>
+      </c>
+      <c r="JS21">
+        <v>700435.05709999998</v>
+      </c>
+      <c r="JT21">
+        <v>429566.27578000003</v>
+      </c>
     </row>
-    <row r="22" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -22424,8 +22897,20 @@
       <c r="JP22">
         <v>44745.710599999999</v>
       </c>
+      <c r="JQ22">
+        <v>62429.187919999997</v>
+      </c>
+      <c r="JR22">
+        <v>125806.32935</v>
+      </c>
+      <c r="JS22">
+        <v>197797.63399</v>
+      </c>
+      <c r="JT22">
+        <v>95914.341149999993</v>
+      </c>
     </row>
-    <row r="23" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -23254,8 +23739,20 @@
       <c r="JP23">
         <v>328760.82694</v>
       </c>
+      <c r="JQ23">
+        <v>254594.63862000001</v>
+      </c>
+      <c r="JR23">
+        <v>399330.52101000003</v>
+      </c>
+      <c r="JS23">
+        <v>502637.42310999997</v>
+      </c>
+      <c r="JT23">
+        <v>333651.93462999997</v>
+      </c>
     </row>
-    <row r="24" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -23988,8 +24485,20 @@
       <c r="JP24">
         <v>1006456.59315</v>
       </c>
+      <c r="JQ24">
+        <v>1368534.1229699999</v>
+      </c>
+      <c r="JR24">
+        <v>1481380.80886</v>
+      </c>
+      <c r="JS24">
+        <v>1925098.7736899999</v>
+      </c>
+      <c r="JT24">
+        <v>1533528.67591</v>
+      </c>
     </row>
-    <row r="25" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -24818,8 +25327,20 @@
       <c r="JP25">
         <v>472980.18145999999</v>
       </c>
+      <c r="JQ25">
+        <v>420973.70426000003</v>
+      </c>
+      <c r="JR25">
+        <v>419511.51286000002</v>
+      </c>
+      <c r="JS25">
+        <v>771605.84644999995</v>
+      </c>
+      <c r="JT25">
+        <v>516160.89184</v>
+      </c>
     </row>
-    <row r="26" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>194</v>
       </c>
@@ -25648,8 +26169,20 @@
       <c r="JP26">
         <v>533476.41168999998</v>
       </c>
+      <c r="JQ26">
+        <v>947560.41871</v>
+      </c>
+      <c r="JR26">
+        <v>1061869.2960000001</v>
+      </c>
+      <c r="JS26">
+        <v>1153492.9272400001</v>
+      </c>
+      <c r="JT26">
+        <v>1017367.7840700001</v>
+      </c>
     </row>
-    <row r="27" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>293</v>
       </c>
@@ -26478,8 +27011,20 @@
       <c r="JP27">
         <v>50167267.868610002</v>
       </c>
+      <c r="JQ27">
+        <v>62305446.998460002</v>
+      </c>
+      <c r="JR27">
+        <v>53756731.154069997</v>
+      </c>
+      <c r="JS27">
+        <v>69382075.968549997</v>
+      </c>
+      <c r="JT27">
+        <v>41714950.057340004</v>
+      </c>
     </row>
-    <row r="28" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -27308,8 +27853,20 @@
       <c r="JP28">
         <v>37557939.74566</v>
       </c>
+      <c r="JQ28">
+        <v>44607119.946719997</v>
+      </c>
+      <c r="JR28">
+        <v>38927011.144529998</v>
+      </c>
+      <c r="JS28">
+        <v>52081335.455729999</v>
+      </c>
+      <c r="JT28">
+        <v>27117104.01588</v>
+      </c>
     </row>
-    <row r="29" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -27814,8 +28371,20 @@
       <c r="JP29">
         <v>48892638.77719</v>
       </c>
+      <c r="JQ29">
+        <v>52580728.465750001</v>
+      </c>
+      <c r="JR29">
+        <v>44855138.19472</v>
+      </c>
+      <c r="JS29">
+        <v>45950655.942170002</v>
+      </c>
+      <c r="JT29">
+        <v>46576252.442419998</v>
+      </c>
     </row>
-    <row r="30" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>293</v>
       </c>
@@ -28320,8 +28889,20 @@
       <c r="JP30">
         <v>20615833.639350001</v>
       </c>
+      <c r="JQ30">
+        <v>20673505.81521</v>
+      </c>
+      <c r="JR30">
+        <v>22935834.07849</v>
+      </c>
+      <c r="JS30">
+        <v>33619915.585430004</v>
+      </c>
+      <c r="JT30">
+        <v>7086159.5102899997</v>
+      </c>
     </row>
-    <row r="31" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>293</v>
       </c>
@@ -28826,8 +29407,20 @@
       <c r="JP31">
         <v>-31950532.670880001</v>
       </c>
+      <c r="JQ31">
+        <v>-28647114.334240001</v>
+      </c>
+      <c r="JR31">
+        <v>-28863961.128679998</v>
+      </c>
+      <c r="JS31">
+        <v>-27489236.071869999</v>
+      </c>
+      <c r="JT31">
+        <v>-26545307.936829999</v>
+      </c>
     </row>
-    <row r="32" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>293</v>
       </c>
@@ -29378,7 +29971,7 @@
         <v>451.02665000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -30207,8 +30800,20 @@
       <c r="JP33">
         <v>5452049.4867000002</v>
       </c>
+      <c r="JQ33">
+        <v>7180704.8563999999</v>
+      </c>
+      <c r="JR33">
+        <v>6181752.8745200001</v>
+      </c>
+      <c r="JS33">
+        <v>6985302.0778700002</v>
+      </c>
+      <c r="JT33">
+        <v>3991463.0462099998</v>
+      </c>
     </row>
-    <row r="34" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>293</v>
       </c>
@@ -31037,8 +31642,20 @@
       <c r="JP34">
         <v>2234906.9615199999</v>
       </c>
+      <c r="JQ34">
+        <v>2297610.1910899999</v>
+      </c>
+      <c r="JR34">
+        <v>2233600.6608099998</v>
+      </c>
+      <c r="JS34">
+        <v>3036251.20517</v>
+      </c>
+      <c r="JT34">
+        <v>1057756.69151</v>
+      </c>
     </row>
-    <row r="35" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>293</v>
       </c>
@@ -31867,8 +32484,20 @@
       <c r="JP35">
         <v>57.114469999999997</v>
       </c>
+      <c r="JQ35">
+        <v>1097.54728</v>
+      </c>
+      <c r="JR35">
+        <v>86.767359999999996</v>
+      </c>
+      <c r="JS35">
+        <v>688.37602000000004</v>
+      </c>
+      <c r="JT35">
+        <v>237.20928000000001</v>
+      </c>
     </row>
-    <row r="36" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>293</v>
       </c>
@@ -32697,8 +33326,20 @@
       <c r="JP36">
         <v>747294.39971000003</v>
       </c>
+      <c r="JQ36">
+        <v>830536.79180999997</v>
+      </c>
+      <c r="JR36">
+        <v>1308924.8131200001</v>
+      </c>
+      <c r="JS36">
+        <v>645115.32085000002</v>
+      </c>
+      <c r="JT36">
+        <v>539636.98508999997</v>
+      </c>
     </row>
-    <row r="37" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>293</v>
       </c>
@@ -32781,7 +33422,7 @@
         <v>-217</v>
       </c>
     </row>
-    <row r="38" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -33610,8 +34251,20 @@
       <c r="JP38">
         <v>1403876.4029900001</v>
       </c>
+      <c r="JQ38">
+        <v>1458332.1064500001</v>
+      </c>
+      <c r="JR38">
+        <v>1862391.7957299999</v>
+      </c>
+      <c r="JS38">
+        <v>1770176.6867500001</v>
+      </c>
+      <c r="JT38">
+        <v>1308342.0079000001</v>
+      </c>
     </row>
-    <row r="39" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>293</v>
       </c>
@@ -34440,8 +35093,20 @@
       <c r="JP39">
         <v>961197.67594999995</v>
       </c>
+      <c r="JQ39">
+        <v>1943724.5382900001</v>
+      </c>
+      <c r="JR39">
+        <v>671495.34465999994</v>
+      </c>
+      <c r="JS39">
+        <v>677865.87049999996</v>
+      </c>
+      <c r="JT39">
+        <v>970310.61655000004</v>
+      </c>
     </row>
-    <row r="40" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -34478,8 +35143,20 @@
       <c r="JP40">
         <v>0</v>
       </c>
+      <c r="JQ40">
+        <v>0</v>
+      </c>
+      <c r="JR40">
+        <v>0</v>
+      </c>
+      <c r="JS40">
+        <v>0</v>
+      </c>
+      <c r="JT40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -34490,7 +35167,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>293</v>
       </c>
@@ -35319,8 +35996,20 @@
       <c r="JP42">
         <v>43034.263599999998</v>
       </c>
+      <c r="JQ42">
+        <v>29342.307840000001</v>
+      </c>
+      <c r="JR42">
+        <v>51356.3056</v>
+      </c>
+      <c r="JS42">
+        <v>38514.809500000003</v>
+      </c>
+      <c r="JT42">
+        <v>56180.774340000004</v>
+      </c>
     </row>
-    <row r="43" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>293</v>
       </c>
@@ -36149,8 +36838,20 @@
       <c r="JP43">
         <v>61622.816939999997</v>
       </c>
+      <c r="JQ43">
+        <v>63798.314740000002</v>
+      </c>
+      <c r="JR43">
+        <v>53629.919560000002</v>
+      </c>
+      <c r="JS43">
+        <v>69991.706330000001</v>
+      </c>
+      <c r="JT43">
+        <v>50110.96357</v>
+      </c>
     </row>
-    <row r="44" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>293</v>
       </c>
@@ -36880,8 +37581,20 @@
       <c r="JP44">
         <v>0</v>
       </c>
+      <c r="JQ44">
+        <v>556195.74722000002</v>
+      </c>
+      <c r="JR44">
+        <v>0</v>
+      </c>
+      <c r="JS44">
+        <v>746487.24835000001</v>
+      </c>
+      <c r="JT44">
+        <v>8870.9563699999999</v>
+      </c>
     </row>
-    <row r="45" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>293</v>
       </c>
@@ -37710,8 +38423,20 @@
       <c r="JP45">
         <v>9.4201499999999996</v>
       </c>
+      <c r="JQ45">
+        <v>1750829.1558300001</v>
+      </c>
+      <c r="JR45">
+        <v>2162.4133099999999</v>
+      </c>
+      <c r="JS45">
+        <v>606.44206999999994</v>
+      </c>
+      <c r="JT45">
+        <v>1758126.2206900001</v>
+      </c>
     </row>
-    <row r="46" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>293</v>
       </c>
@@ -37964,8 +38689,20 @@
       <c r="JP46">
         <v>225163.11193000001</v>
       </c>
+      <c r="JQ46">
+        <v>250692.329</v>
+      </c>
+      <c r="JR46">
+        <v>184083.20740000001</v>
+      </c>
+      <c r="JS46">
+        <v>200531.15611000001</v>
+      </c>
+      <c r="JT46">
+        <v>216642.09917</v>
+      </c>
     </row>
-    <row r="47" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>293</v>
       </c>
@@ -38794,8 +39531,20 @@
       <c r="JP47">
         <v>5741391.2858800003</v>
       </c>
+      <c r="JQ47">
+        <v>7313345.6815200001</v>
+      </c>
+      <c r="JR47">
+        <v>7503123.6689799996</v>
+      </c>
+      <c r="JS47">
+        <v>8843868.48539</v>
+      </c>
+      <c r="JT47">
+        <v>7630315.3501500003</v>
+      </c>
     </row>
-    <row r="48" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -39012,8 +39761,20 @@
       <c r="JP48">
         <v>234667.75193999999</v>
       </c>
+      <c r="JQ48">
+        <v>297356.87533000001</v>
+      </c>
+      <c r="JR48">
+        <v>283257.57672999997</v>
+      </c>
+      <c r="JS48">
+        <v>336186.37294999999</v>
+      </c>
+      <c r="JT48">
+        <v>277602.36747</v>
+      </c>
     </row>
-    <row r="49" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>293</v>
       </c>
@@ -39230,8 +39991,20 @@
       <c r="JP49">
         <v>172993.72562000001</v>
       </c>
+      <c r="JQ49">
+        <v>215505.73084</v>
+      </c>
+      <c r="JR49">
+        <v>174214.64791999999</v>
+      </c>
+      <c r="JS49">
+        <v>154152.61887999999</v>
+      </c>
+      <c r="JT49">
+        <v>182529.30949000001</v>
+      </c>
     </row>
-    <row r="50" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>293</v>
       </c>
@@ -39448,8 +40221,20 @@
       <c r="JP50">
         <v>61674.026319999997</v>
       </c>
+      <c r="JQ50">
+        <v>81851.144490000006</v>
+      </c>
+      <c r="JR50">
+        <v>109042.92881</v>
+      </c>
+      <c r="JS50">
+        <v>182033.75407</v>
+      </c>
+      <c r="JT50">
+        <v>95073.057979999998</v>
+      </c>
     </row>
-    <row r="51" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>293</v>
       </c>
@@ -39484,7 +40269,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>293</v>
       </c>
@@ -40142,8 +40927,20 @@
       <c r="JP52">
         <v>1190714.8182900001</v>
       </c>
+      <c r="JQ52">
+        <v>1196516.60482</v>
+      </c>
+      <c r="JR52">
+        <v>958465.74635999999</v>
+      </c>
+      <c r="JS52">
+        <v>1269280.27553</v>
+      </c>
+      <c r="JT52">
+        <v>1001242.09705</v>
+      </c>
     </row>
-    <row r="53" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>293</v>
       </c>
@@ -40972,8 +41769,20 @@
       <c r="JP53">
         <v>86191.397500000006</v>
       </c>
+      <c r="JQ53">
+        <v>101819.52092</v>
+      </c>
+      <c r="JR53">
+        <v>91381.490829999995</v>
+      </c>
+      <c r="JS53">
+        <v>77286.076560000001</v>
+      </c>
+      <c r="JT53">
+        <v>91880.188399999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>293</v>
       </c>
@@ -41721,8 +42530,20 @@
       <c r="JP54">
         <v>208197.29874</v>
       </c>
+      <c r="JQ54">
+        <v>1412.3455100000001</v>
+      </c>
+      <c r="JR54">
+        <v>954.81327999999996</v>
+      </c>
+      <c r="JS54">
+        <v>140149.62192000001</v>
+      </c>
+      <c r="JT54">
+        <v>860.63315999999998</v>
+      </c>
     </row>
-    <row r="55" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>293</v>
       </c>
@@ -42299,8 +43120,20 @@
       <c r="JP55">
         <v>626949.83744999999</v>
       </c>
+      <c r="JQ55">
+        <v>600979.13574000006</v>
+      </c>
+      <c r="JR55">
+        <v>610380.19117999997</v>
+      </c>
+      <c r="JS55">
+        <v>560508.38858999999</v>
+      </c>
+      <c r="JT55">
+        <v>631808.17081000004</v>
+      </c>
     </row>
-    <row r="56" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>293</v>
       </c>
@@ -42877,8 +43710,20 @@
       <c r="JP56">
         <v>700.14</v>
       </c>
+      <c r="JQ56">
+        <v>828.92</v>
+      </c>
+      <c r="JR56">
+        <v>568.6</v>
+      </c>
+      <c r="JS56">
+        <v>973.06</v>
+      </c>
+      <c r="JT56">
+        <v>86.5</v>
+      </c>
     </row>
-    <row r="57" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>293</v>
       </c>
@@ -43419,8 +44264,20 @@
       <c r="JP57">
         <v>210197.91977000001</v>
       </c>
+      <c r="JQ57">
+        <v>396335.96039999998</v>
+      </c>
+      <c r="JR57">
+        <v>206590.81685</v>
+      </c>
+      <c r="JS57">
+        <v>410342.47412999999</v>
+      </c>
+      <c r="JT57">
+        <v>200122.27101</v>
+      </c>
     </row>
-    <row r="58" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>293</v>
       </c>
@@ -43745,8 +44602,20 @@
       <c r="JP58">
         <v>52258.901089999999</v>
       </c>
+      <c r="JQ58">
+        <v>92951.903409999999</v>
+      </c>
+      <c r="JR58">
+        <v>43483.611969999998</v>
+      </c>
+      <c r="JS58">
+        <v>65688.406350000005</v>
+      </c>
+      <c r="JT58">
+        <v>65574.244749999998</v>
+      </c>
     </row>
-    <row r="59" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>293</v>
       </c>
@@ -44071,8 +44940,20 @@
       <c r="JP59">
         <v>1997.74073</v>
       </c>
+      <c r="JQ59">
+        <v>0</v>
+      </c>
+      <c r="JR59">
+        <v>0</v>
+      </c>
+      <c r="JS59">
+        <v>0</v>
+      </c>
+      <c r="JT59">
+        <v>7282.8113000000003</v>
+      </c>
     </row>
-    <row r="60" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>293</v>
       </c>
@@ -44253,8 +45134,20 @@
       <c r="JP60">
         <v>4001.57044</v>
       </c>
+      <c r="JQ60">
+        <v>1824.40488</v>
+      </c>
+      <c r="JR60">
+        <v>384.94779999999997</v>
+      </c>
+      <c r="JS60">
+        <v>13752.69773</v>
+      </c>
+      <c r="JT60">
+        <v>3520.2894900000001</v>
+      </c>
     </row>
-    <row r="61" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>293</v>
       </c>
@@ -44268,7 +45161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>293</v>
       </c>
@@ -44312,7 +45205,7 @@
         <v>35076</v>
       </c>
     </row>
-    <row r="63" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>293</v>
       </c>
@@ -44997,8 +45890,20 @@
       <c r="JP63">
         <v>499810.12465000001</v>
       </c>
+      <c r="JQ63">
+        <v>543039.70718000003</v>
+      </c>
+      <c r="JR63">
+        <v>1147694.4482799999</v>
+      </c>
+      <c r="JS63">
+        <v>2148799.4812099999</v>
+      </c>
+      <c r="JT63">
+        <v>847424.21323999995</v>
+      </c>
     </row>
-    <row r="64" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>293</v>
       </c>
@@ -45689,8 +46594,20 @@
       <c r="JP64">
         <v>0</v>
       </c>
+      <c r="JQ64">
+        <v>6238.4241700000002</v>
+      </c>
+      <c r="JR64">
+        <v>132.09897000000001</v>
+      </c>
+      <c r="JS64">
+        <v>1152.0758499999999</v>
+      </c>
+      <c r="JT64">
+        <v>57.228189999999998</v>
+      </c>
     </row>
-    <row r="65" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -46519,8 +47436,20 @@
       <c r="JP65">
         <v>5721454.5729999999</v>
       </c>
+      <c r="JQ65">
+        <v>7194074.94154</v>
+      </c>
+      <c r="JR65">
+        <v>6862321.4111599997</v>
+      </c>
+      <c r="JS65">
+        <v>10254597.760779999</v>
+      </c>
+      <c r="JT65">
+        <v>3346580.4558700002</v>
+      </c>
     </row>
-    <row r="66" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -47205,8 +48134,20 @@
       <c r="JP66">
         <v>5838443.9100500001</v>
       </c>
+      <c r="JQ66">
+        <v>7212366.1972700004</v>
+      </c>
+      <c r="JR66">
+        <v>6269114.7810199996</v>
+      </c>
+      <c r="JS66">
+        <v>9681776.4376699999</v>
+      </c>
+      <c r="JT66">
+        <v>2969841.5620599999</v>
+      </c>
     </row>
-    <row r="67" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>229</v>
       </c>
@@ -48035,8 +48976,20 @@
       <c r="JP67">
         <v>4872604.3024399998</v>
       </c>
+      <c r="JQ67">
+        <v>6534318.6853799997</v>
+      </c>
+      <c r="JR67">
+        <v>5513772.9018799998</v>
+      </c>
+      <c r="JS67">
+        <v>8491343.2482399996</v>
+      </c>
+      <c r="JT67">
+        <v>2860229.9446899998</v>
+      </c>
     </row>
-    <row r="68" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -48083,7 +49036,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="69" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -48118,7 +49071,7 @@
         <v>-655</v>
       </c>
     </row>
-    <row r="70" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>229</v>
       </c>
@@ -48587,8 +49540,20 @@
       <c r="JP70">
         <v>965839.60760999995</v>
       </c>
+      <c r="JQ70">
+        <v>678047.51188999997</v>
+      </c>
+      <c r="JR70">
+        <v>755341.87913999998</v>
+      </c>
+      <c r="JS70">
+        <v>1190433.18943</v>
+      </c>
+      <c r="JT70">
+        <v>109611.61737000001</v>
+      </c>
     </row>
-    <row r="71" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>229</v>
       </c>
@@ -48841,8 +49806,20 @@
       <c r="JP71">
         <v>7571.3017499999996</v>
       </c>
+      <c r="JQ71">
+        <v>12836.832990000001</v>
+      </c>
+      <c r="JR71">
+        <v>10525.8102</v>
+      </c>
+      <c r="JS71">
+        <v>14714.88258</v>
+      </c>
+      <c r="JT71">
+        <v>788.39953000000003</v>
+      </c>
     </row>
-    <row r="72" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -49527,8 +50504,20 @@
       <c r="JP72">
         <v>499810.12465000001</v>
       </c>
+      <c r="JQ72">
+        <v>543039.70718000003</v>
+      </c>
+      <c r="JR72">
+        <v>1147694.4482799999</v>
+      </c>
+      <c r="JS72">
+        <v>2148799.4812099999</v>
+      </c>
+      <c r="JT72">
+        <v>847424.21323999995</v>
+      </c>
     </row>
-    <row r="73" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -50357,8 +51346,20 @@
       <c r="JP73">
         <v>-164064.50185</v>
       </c>
+      <c r="JQ73">
+        <v>-81835.188330000004</v>
+      </c>
+      <c r="JR73">
+        <v>542867.06559000001</v>
+      </c>
+      <c r="JS73">
+        <v>502070.94559999998</v>
+      </c>
+      <c r="JT73">
+        <v>344024.92327000003</v>
+      </c>
     </row>
-    <row r="74" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>229</v>
       </c>
@@ -51058,8 +52059,20 @@
       <c r="JP74">
         <v>23.897020000000001</v>
       </c>
+      <c r="JQ74">
+        <v>14628.72985</v>
+      </c>
+      <c r="JR74">
+        <v>-1290.86833</v>
+      </c>
+      <c r="JS74">
+        <v>21159.95534</v>
+      </c>
+      <c r="JT74">
+        <v>1433.50126</v>
+      </c>
     </row>
-    <row r="75" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -51204,8 +52217,20 @@
       <c r="JP75">
         <v>39479.966030000003</v>
       </c>
+      <c r="JQ75">
+        <v>36078.369760000001</v>
+      </c>
+      <c r="JR75">
+        <v>41104.62268</v>
+      </c>
+      <c r="JS75">
+        <v>34875.53959</v>
+      </c>
+      <c r="JT75">
+        <v>30492.069749999999</v>
+      </c>
     </row>
-    <row r="76" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>236</v>
       </c>
@@ -52034,8 +53059,20 @@
       <c r="JP76">
         <v>0</v>
       </c>
+      <c r="JQ76">
+        <v>0</v>
+      </c>
+      <c r="JR76">
+        <v>0</v>
+      </c>
+      <c r="JS76">
+        <v>0</v>
+      </c>
+      <c r="JT76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>236</v>
       </c>
@@ -52864,8 +53901,20 @@
       <c r="JP77">
         <v>0</v>
       </c>
+      <c r="JQ77">
+        <v>0</v>
+      </c>
+      <c r="JR77">
+        <v>0</v>
+      </c>
+      <c r="JS77">
+        <v>0</v>
+      </c>
+      <c r="JT77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>238</v>
       </c>
@@ -53658,8 +54707,20 @@
       <c r="JP78">
         <v>-675.46208000000001</v>
       </c>
+      <c r="JQ78">
+        <v>-201.18380999999999</v>
+      </c>
+      <c r="JR78">
+        <v>153.24923999999999</v>
+      </c>
+      <c r="JS78">
+        <v>-857.15589999999997</v>
+      </c>
+      <c r="JT78">
+        <v>-453.20654000000002</v>
+      </c>
     </row>
-    <row r="79" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -54488,8 +55549,20 @@
       <c r="JP79">
         <v>203461473.82163</v>
       </c>
+      <c r="JQ79">
+        <v>142742086.75479001</v>
+      </c>
+      <c r="JR79">
+        <v>200970080.79486999</v>
+      </c>
+      <c r="JS79">
+        <v>194015860.34788001</v>
+      </c>
+      <c r="JT79">
+        <v>121335125.05666</v>
+      </c>
     </row>
-    <row r="80" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>240</v>
       </c>
@@ -55225,8 +56298,20 @@
       <c r="JP80">
         <v>0</v>
       </c>
+      <c r="JQ80">
+        <v>-22468529</v>
+      </c>
+      <c r="JR80">
+        <v>0</v>
+      </c>
+      <c r="JS80">
+        <v>0</v>
+      </c>
+      <c r="JT80">
+        <v>-18388029</v>
+      </c>
     </row>
-    <row r="81" spans="1:276" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>241</v>
       </c>
@@ -56054,6 +57139,18 @@
       </c>
       <c r="JP81">
         <v>203461473.82163</v>
+      </c>
+      <c r="JQ81">
+        <v>120273557.75478999</v>
+      </c>
+      <c r="JR81">
+        <v>200970080.79486999</v>
+      </c>
+      <c r="JS81">
+        <v>194015860.34788001</v>
+      </c>
+      <c r="JT81">
+        <v>102947096.05666</v>
       </c>
     </row>
   </sheetData>
